--- a/TimeSheet/Content/Dash_Board.xlsx
+++ b/TimeSheet/Content/Dash_Board.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="-36" windowWidth="2760" windowHeight="4716" tabRatio="841" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="5100" yWindow="-30" windowWidth="2760" windowHeight="4710" tabRatio="841" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WData" sheetId="11" state="hidden" r:id="rId1"/>
     <sheet name="Global RDSS" sheetId="31" r:id="rId2"/>
-    <sheet name="FCHIC" sheetId="32" r:id="rId3"/>
+    <sheet name="F&amp;HCIC" sheetId="32" r:id="rId3"/>
     <sheet name="MBC" sheetId="33" r:id="rId4"/>
     <sheet name="SWIC" sheetId="34" r:id="rId5"/>
     <sheet name="WHBC" sheetId="35" r:id="rId6"/>
@@ -845,7 +845,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="115">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -855,9 +855,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1071,6 +1068,17 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1424,15 +1432,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
         <f ca="1">NOW()</f>
-        <v>41596.603060416666</v>
+        <v>41698.575901504628</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1443,7 +1451,7 @@
     <row r="5" spans="1:1">
       <c r="A5">
         <f ca="1">NOW()</f>
-        <v>41596.603060416666</v>
+        <v>41698.575901504628</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1465,206 +1473,206 @@
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C35" sqref="C35:C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="55.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="55.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" customWidth="1"/>
-    <col min="12" max="12" width="31.44140625" customWidth="1"/>
-    <col min="13" max="13" width="24.88671875" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" ht="15.75">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="E1" s="42"/>
-      <c r="I1" s="102" t="s">
+      <c r="B1" s="8"/>
+      <c r="E1" s="41"/>
+      <c r="I1" s="101" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.6">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1"/>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="48"/>
-      <c r="G3" s="28" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="47"/>
+      <c r="G3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="40"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="G4" s="28" t="s">
+      <c r="E4" s="47"/>
+      <c r="G4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="87" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.6">
-      <c r="B5" s="27" t="s">
+      <c r="J4" s="87"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75">
+      <c r="B5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="48"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="40"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="47"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="16"/>
       <c r="G6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="65"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="F9" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="89"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="88"/>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="G10" s="36" t="s">
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="G10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="65"/>
+      <c r="I10" s="64"/>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="B11" s="75"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="F11" s="77" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="F11" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="92" t="s">
+      <c r="G11" s="91" t="s">
         <v>64</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="49"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="48"/>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16">
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" s="25" customFormat="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="103" t="s">
+    <row r="13" spans="1:16" s="24" customFormat="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" spans="1:16" s="25" customFormat="1" ht="162" customHeight="1">
-      <c r="B14" s="33" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:16" s="24" customFormat="1" ht="162" customHeight="1">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="33" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1672,165 +1680,165 @@
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="61"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="60"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="K22" s="19"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="41"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="2:13" s="25" customFormat="1" ht="28.8">
-      <c r="B24" s="33" t="s">
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="40"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="2:13" s="24" customFormat="1" ht="45">
+      <c r="B24" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="34" t="s">
+      <c r="L24" s="33" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1838,798 +1846,798 @@
       <c r="B25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="19"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="19"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="18"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="19"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="18"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="19"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="2:13" ht="22.5" customHeight="1">
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="19"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="18"/>
     </row>
     <row r="31" spans="2:13" ht="24.75" customHeight="1">
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="61"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="60"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="10"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="61"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="60"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="41"/>
-      <c r="K33" s="19"/>
-    </row>
-    <row r="34" spans="2:16" s="25" customFormat="1" ht="28.8">
-      <c r="B34" s="33" t="s">
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="40"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="2:16" s="24" customFormat="1" ht="45">
+      <c r="B34" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="51" t="s">
+      <c r="H34" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K34" s="34" t="s">
+      <c r="K34" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L34" s="34" t="s">
+      <c r="L34" s="33" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:16">
-      <c r="C35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="18"/>
+      <c r="L35" s="17"/>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="8"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="19"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="18"/>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="19"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="19"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="18"/>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="8"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="19"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="18"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="13"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="12"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="19"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="18"/>
     </row>
     <row r="41" spans="2:16" ht="21" customHeight="1">
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="8"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="19"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="18"/>
     </row>
     <row r="42" spans="2:16" ht="24" customHeight="1">
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="13"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="12"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="61"/>
-    </row>
-    <row r="43" spans="2:16" s="95" customFormat="1" ht="24" customHeight="1">
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-    </row>
-    <row r="44" spans="2:16" s="95" customFormat="1">
-      <c r="B44" s="93"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-    </row>
-    <row r="45" spans="2:16" s="30" customFormat="1" ht="60" customHeight="1">
-      <c r="B45" s="32" t="s">
+      <c r="M42" s="60"/>
+    </row>
+    <row r="43" spans="2:16" s="94" customFormat="1" ht="24" customHeight="1">
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+    </row>
+    <row r="44" spans="2:16" s="94" customFormat="1">
+      <c r="B44" s="92"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+    </row>
+    <row r="45" spans="2:16" s="29" customFormat="1" ht="60" customHeight="1">
+      <c r="B45" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="57" t="s">
+      <c r="G45" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="59" t="s">
+      <c r="J45" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="58" t="s">
+      <c r="K45" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="L45" s="59" t="s">
+      <c r="L45" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="60" t="s">
+      <c r="M45" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N45" s="54"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="56"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="55"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="69"/>
-      <c r="C46" s="108" t="s">
+      <c r="B46" s="68"/>
+      <c r="C46" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="105" t="s">
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="106"/>
-      <c r="L46" s="106"/>
-      <c r="M46" s="107"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="24"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="23"/>
     </row>
     <row r="47" spans="2:16">
       <c r="B47" s="6"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="21"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="23"/>
+      <c r="K47" s="22"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="53"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="52"/>
     </row>
     <row r="48" spans="2:16">
       <c r="B48" s="6"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="21"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="23"/>
+      <c r="K48" s="22"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="53"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="52"/>
     </row>
     <row r="49" spans="2:16">
       <c r="B49" s="6"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="23"/>
+      <c r="K49" s="22"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="53"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="52"/>
     </row>
     <row r="50" spans="2:16">
       <c r="B50" s="6"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="21"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="23"/>
+      <c r="K50" s="22"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="53"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="52"/>
     </row>
     <row r="51" spans="2:16">
       <c r="B51" s="6"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="21"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="23"/>
+      <c r="K51" s="22"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="53"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="52"/>
     </row>
     <row r="52" spans="2:16">
       <c r="B52" s="6"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="21"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="23"/>
+      <c r="K52" s="22"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="53"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="52"/>
     </row>
     <row r="53" spans="2:16">
       <c r="B53" s="6"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="22"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="23"/>
+      <c r="K53" s="22"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="53"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="52"/>
     </row>
     <row r="54" spans="2:16">
       <c r="B54" s="6"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="22"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="21"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="23"/>
+      <c r="K54" s="22"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="53"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="52"/>
     </row>
     <row r="55" spans="2:16">
       <c r="B55" s="6"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="21"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="23"/>
+      <c r="K55" s="22"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="53"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="52"/>
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="6"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="22"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="21"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
-      <c r="K56" s="23"/>
+      <c r="K56" s="22"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="53"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="52"/>
     </row>
     <row r="57" spans="2:16">
       <c r="B57" s="6"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
-      <c r="K57" s="23"/>
+      <c r="K57" s="22"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="53"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="52"/>
     </row>
     <row r="58" spans="2:16">
       <c r="B58" s="6"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="21"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="23"/>
+      <c r="K58" s="22"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="53"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="52"/>
     </row>
     <row r="59" spans="2:16">
       <c r="B59" s="6"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="22"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="21"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
-      <c r="K59" s="23"/>
+      <c r="K59" s="22"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="53"/>
-    </row>
-    <row r="60" spans="2:16" s="30" customFormat="1" ht="69" customHeight="1">
-      <c r="B60" s="99" t="s">
+      <c r="M59" s="17"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="52"/>
+    </row>
+    <row r="60" spans="2:16" s="29" customFormat="1" ht="69" customHeight="1">
+      <c r="B60" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="99" t="s">
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="34" t="s">
+      <c r="H60" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I60" s="100"/>
-      <c r="J60" s="100" t="s">
+      <c r="I60" s="99"/>
+      <c r="J60" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="K60" s="99"/>
-      <c r="L60" s="100" t="s">
+      <c r="K60" s="98"/>
+      <c r="L60" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="M60" s="100" t="s">
+      <c r="M60" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="N60" s="54"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="56"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="55"/>
     </row>
     <row r="62" spans="2:16" ht="51.75" customHeight="1">
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="47"/>
+      <c r="C62" s="46"/>
     </row>
     <row r="63" spans="2:16">
       <c r="B63" s="3"/>
-      <c r="C63" s="45"/>
+      <c r="C63" s="44"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="H63" s="4"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="2:16" s="31" customFormat="1" ht="69" customHeight="1">
-      <c r="B64" s="29" t="s">
+    <row r="64" spans="2:16" s="30" customFormat="1" ht="69" customHeight="1">
+      <c r="B64" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="64"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-    </row>
-    <row r="65" spans="2:10" s="25" customFormat="1">
-      <c r="B65" s="26" t="s">
+      <c r="G64" s="63"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+    </row>
+    <row r="65" spans="2:10" s="24" customFormat="1">
+      <c r="B65" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-    </row>
-    <row r="67" spans="2:10" ht="18">
-      <c r="B67" s="26" t="s">
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+    </row>
+    <row r="67" spans="2:10" ht="18.75">
+      <c r="B67" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="25" t="s">
         <v>82</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="76" t="s">
+      <c r="B74" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="101">
+      <c r="C74" s="100">
         <v>1</v>
       </c>
-      <c r="D74" s="101">
+      <c r="D74" s="100">
         <v>1</v>
       </c>
-      <c r="E74" s="101">
+      <c r="E74" s="100">
         <v>1</v>
       </c>
-      <c r="F74" s="101">
+      <c r="F74" s="100">
         <v>1</v>
       </c>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-    </row>
-    <row r="75" spans="2:10" s="49" customFormat="1">
-      <c r="B75" s="66" t="s">
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+    </row>
+    <row r="75" spans="2:10" s="48" customFormat="1">
+      <c r="B75" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
     </row>
     <row r="76" spans="2:10" ht="22.5" customHeight="1">
-      <c r="B76" s="72" t="s">
+      <c r="B76" s="71" t="s">
         <v>61</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="H76" s="14"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="44"/>
+      <c r="B77" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2650,207 +2658,207 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="55.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="55.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" customWidth="1"/>
-    <col min="12" max="12" width="31.44140625" customWidth="1"/>
-    <col min="13" max="13" width="24.88671875" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" ht="15.75">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="E1" s="42"/>
-      <c r="I1" s="102" t="s">
+      <c r="B1" s="8"/>
+      <c r="E1" s="41"/>
+      <c r="I1" s="101" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.6">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1"/>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="48"/>
-      <c r="G3" s="28" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="47"/>
+      <c r="G3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="40"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="G4" s="28" t="s">
+      <c r="E4" s="47"/>
+      <c r="G4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="87" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.6">
-      <c r="B5" s="27" t="s">
+      <c r="J4" s="87"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75">
+      <c r="B5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="48"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="40"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="47"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="16"/>
       <c r="G6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="65"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="F9" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="89"/>
-      <c r="P9" s="24"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="88"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="G10" s="36" t="s">
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="G10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="65"/>
-      <c r="P10" s="24"/>
+      <c r="I10" s="64"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="B11" s="75"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="F11" s="77" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="F11" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="92" t="s">
+      <c r="G11" s="91" t="s">
         <v>64</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="49"/>
-      <c r="P11" s="24"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="48"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="P12" s="24"/>
-    </row>
-    <row r="13" spans="1:16" s="25" customFormat="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="103" t="s">
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:16" s="24" customFormat="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" spans="1:16" s="25" customFormat="1" ht="162" customHeight="1">
-      <c r="B14" s="33" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:16" s="24" customFormat="1" ht="162" customHeight="1">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="33" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2858,165 +2866,165 @@
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="61"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="60"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="K22" s="19"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="41"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="2:13" s="25" customFormat="1" ht="28.8">
-      <c r="B24" s="33" t="s">
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="40"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="2:13" s="24" customFormat="1" ht="45">
+      <c r="B24" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="34" t="s">
+      <c r="L24" s="33" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3024,798 +3032,798 @@
       <c r="B25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="19"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="19"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="18"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="19"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="18"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="19"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="19"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="18"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="61"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="60"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="10"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="61"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="60"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="41"/>
-      <c r="K33" s="19"/>
-    </row>
-    <row r="34" spans="2:16" s="25" customFormat="1" ht="28.8">
-      <c r="B34" s="33" t="s">
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="40"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="2:16" s="24" customFormat="1" ht="45">
+      <c r="B34" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="51" t="s">
+      <c r="H34" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K34" s="34" t="s">
+      <c r="K34" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L34" s="34" t="s">
+      <c r="L34" s="33" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:16">
-      <c r="C35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="18"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="104"/>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="19"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="18"/>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="19"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="19"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="18"/>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="19"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="18"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="19"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="18"/>
     </row>
     <row r="41" spans="2:16" ht="21" customHeight="1">
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="19"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="18"/>
     </row>
     <row r="42" spans="2:16" ht="24" customHeight="1">
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="61"/>
-    </row>
-    <row r="43" spans="2:16" s="95" customFormat="1" ht="24" customHeight="1">
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-    </row>
-    <row r="44" spans="2:16" s="95" customFormat="1">
-      <c r="B44" s="93"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-    </row>
-    <row r="45" spans="2:16" s="30" customFormat="1" ht="60" customHeight="1">
-      <c r="B45" s="32" t="s">
+      <c r="C42" s="106"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="60"/>
+    </row>
+    <row r="43" spans="2:16" s="94" customFormat="1" ht="24" customHeight="1">
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+    </row>
+    <row r="44" spans="2:16" s="94" customFormat="1">
+      <c r="B44" s="92"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+    </row>
+    <row r="45" spans="2:16" s="29" customFormat="1" ht="60" customHeight="1">
+      <c r="B45" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="57" t="s">
+      <c r="G45" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="59" t="s">
+      <c r="J45" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="58" t="s">
+      <c r="K45" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="L45" s="59" t="s">
+      <c r="L45" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="60" t="s">
+      <c r="M45" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N45" s="54"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="56"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="55"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="69"/>
-      <c r="C46" s="108" t="s">
+      <c r="B46" s="68"/>
+      <c r="C46" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="105" t="s">
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="106"/>
-      <c r="L46" s="106"/>
-      <c r="M46" s="107"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="24"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="23"/>
     </row>
     <row r="47" spans="2:16">
       <c r="B47" s="6"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="21"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="23"/>
+      <c r="K47" s="22"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="53"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="52"/>
     </row>
     <row r="48" spans="2:16">
       <c r="B48" s="6"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="21"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="23"/>
+      <c r="K48" s="22"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="53"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="52"/>
     </row>
     <row r="49" spans="2:16">
       <c r="B49" s="6"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="23"/>
+      <c r="K49" s="22"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="53"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="52"/>
     </row>
     <row r="50" spans="2:16">
       <c r="B50" s="6"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="21"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="23"/>
+      <c r="K50" s="22"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="53"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="52"/>
     </row>
     <row r="51" spans="2:16">
       <c r="B51" s="6"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="21"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="23"/>
+      <c r="K51" s="22"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="53"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="52"/>
     </row>
     <row r="52" spans="2:16">
       <c r="B52" s="6"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="21"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="23"/>
+      <c r="K52" s="22"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="53"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="52"/>
     </row>
     <row r="53" spans="2:16">
       <c r="B53" s="6"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="22"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="23"/>
+      <c r="K53" s="22"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="53"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="52"/>
     </row>
     <row r="54" spans="2:16">
       <c r="B54" s="6"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="22"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="21"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="23"/>
+      <c r="K54" s="22"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="53"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="52"/>
     </row>
     <row r="55" spans="2:16">
       <c r="B55" s="6"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="21"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="23"/>
+      <c r="K55" s="22"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="53"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="52"/>
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="6"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="22"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="21"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
-      <c r="K56" s="23"/>
+      <c r="K56" s="22"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="53"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="52"/>
     </row>
     <row r="57" spans="2:16">
       <c r="B57" s="6"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
-      <c r="K57" s="23"/>
+      <c r="K57" s="22"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="53"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="52"/>
     </row>
     <row r="58" spans="2:16">
       <c r="B58" s="6"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="21"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="23"/>
+      <c r="K58" s="22"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="53"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="52"/>
     </row>
     <row r="59" spans="2:16">
       <c r="B59" s="6"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="22"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="21"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
-      <c r="K59" s="23"/>
+      <c r="K59" s="22"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="53"/>
-    </row>
-    <row r="60" spans="2:16" s="30" customFormat="1" ht="69" customHeight="1">
-      <c r="B60" s="99" t="s">
+      <c r="M59" s="17"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="52"/>
+    </row>
+    <row r="60" spans="2:16" s="29" customFormat="1" ht="69" customHeight="1">
+      <c r="B60" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="99" t="s">
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="34" t="s">
+      <c r="H60" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I60" s="100"/>
-      <c r="J60" s="100" t="s">
+      <c r="I60" s="99"/>
+      <c r="J60" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="K60" s="99"/>
-      <c r="L60" s="100" t="s">
+      <c r="K60" s="98"/>
+      <c r="L60" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="M60" s="100" t="s">
+      <c r="M60" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="N60" s="54"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="56"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="55"/>
     </row>
     <row r="62" spans="2:16" ht="51.75" customHeight="1">
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="47"/>
+      <c r="C62" s="46"/>
     </row>
     <row r="63" spans="2:16">
       <c r="B63" s="3"/>
-      <c r="C63" s="45"/>
+      <c r="C63" s="44"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="H63" s="4"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="2:16" s="31" customFormat="1" ht="69" customHeight="1">
-      <c r="B64" s="29" t="s">
+    <row r="64" spans="2:16" s="30" customFormat="1" ht="69" customHeight="1">
+      <c r="B64" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="64"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-    </row>
-    <row r="65" spans="2:10" s="25" customFormat="1">
-      <c r="B65" s="26" t="s">
+      <c r="G64" s="63"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+    </row>
+    <row r="65" spans="2:10" s="24" customFormat="1">
+      <c r="B65" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-    </row>
-    <row r="67" spans="2:10" ht="18">
-      <c r="B67" s="26" t="s">
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+    </row>
+    <row r="67" spans="2:10" ht="18.75">
+      <c r="B67" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="25" t="s">
         <v>82</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="76" t="s">
+      <c r="B74" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="101">
+      <c r="C74" s="100">
         <v>1</v>
       </c>
-      <c r="D74" s="101">
+      <c r="D74" s="100">
         <v>1</v>
       </c>
-      <c r="E74" s="101">
+      <c r="E74" s="100">
         <v>1</v>
       </c>
-      <c r="F74" s="101">
+      <c r="F74" s="100">
         <v>1</v>
       </c>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-    </row>
-    <row r="75" spans="2:10" s="49" customFormat="1">
-      <c r="B75" s="66" t="s">
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+    </row>
+    <row r="75" spans="2:10" s="48" customFormat="1">
+      <c r="B75" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="72" t="s">
+      <c r="B76" s="71" t="s">
         <v>61</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="H76" s="14"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="44"/>
+      <c r="B77" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3835,206 +3843,206 @@
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="55.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="55.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" customWidth="1"/>
-    <col min="12" max="12" width="31.44140625" customWidth="1"/>
-    <col min="13" max="13" width="24.88671875" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" ht="15.75">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="E1" s="42"/>
-      <c r="I1" s="102" t="s">
+      <c r="B1" s="8"/>
+      <c r="E1" s="41"/>
+      <c r="I1" s="101" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.6">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1"/>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="48"/>
-      <c r="G3" s="28" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="47"/>
+      <c r="G3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="40"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="G4" s="28" t="s">
+      <c r="E4" s="47"/>
+      <c r="G4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="87" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.6">
-      <c r="B5" s="27" t="s">
+      <c r="J4" s="87"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75">
+      <c r="B5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="48"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="40"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="47"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="16"/>
       <c r="G6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="65"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="F9" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="89"/>
-      <c r="P9" s="24"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="88"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="G10" s="36" t="s">
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="G10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="65"/>
-      <c r="P10" s="24"/>
+      <c r="I10" s="64"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="B11" s="75"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="F11" s="77" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="F11" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="92" t="s">
+      <c r="G11" s="91" t="s">
         <v>64</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="49"/>
-      <c r="P11" s="24"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="48"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="P12" s="24"/>
-    </row>
-    <row r="13" spans="1:16" s="25" customFormat="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="103" t="s">
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:16" s="24" customFormat="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" spans="1:16" s="25" customFormat="1" ht="162" customHeight="1">
-      <c r="B14" s="33" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:16" s="24" customFormat="1" ht="162" customHeight="1">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="33" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4043,164 +4051,164 @@
         <v>17</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="8"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="13"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="13"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="61"/>
+      <c r="M21" s="60"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="K22" s="19"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="41"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="2:13" s="25" customFormat="1" ht="28.8">
-      <c r="B24" s="33" t="s">
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="40"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="2:13" s="24" customFormat="1" ht="45">
+      <c r="B24" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="34" t="s">
+      <c r="L24" s="33" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4209,797 +4217,797 @@
         <v>17</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="8"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="19"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="19"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="18"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="19"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="18"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="8"/>
+      <c r="J29" s="7"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="19"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="13"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="12"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="19"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="18"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="13"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="12"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="61"/>
+      <c r="M31" s="60"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="10"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="61"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="60"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="41"/>
-      <c r="K33" s="19"/>
-    </row>
-    <row r="34" spans="2:16" s="25" customFormat="1" ht="28.8">
-      <c r="B34" s="33" t="s">
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="40"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="2:16" s="24" customFormat="1" ht="45">
+      <c r="B34" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="51" t="s">
+      <c r="H34" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K34" s="34" t="s">
+      <c r="K34" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L34" s="34" t="s">
+      <c r="L34" s="33" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:16">
       <c r="C35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="18"/>
+      <c r="L35" s="17"/>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="8"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="19"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="18"/>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="19"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="19"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="18"/>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="8"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="19"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="18"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="13"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="12"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="19"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="18"/>
     </row>
     <row r="41" spans="2:16" ht="21" customHeight="1">
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="71" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="8"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="19"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="18"/>
     </row>
     <row r="42" spans="2:16" ht="24" customHeight="1">
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="13"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="12"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="61"/>
-    </row>
-    <row r="43" spans="2:16" s="95" customFormat="1" ht="24" customHeight="1">
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-    </row>
-    <row r="44" spans="2:16" s="95" customFormat="1">
-      <c r="B44" s="93"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-    </row>
-    <row r="45" spans="2:16" s="30" customFormat="1" ht="60" customHeight="1">
-      <c r="B45" s="32" t="s">
+      <c r="M42" s="60"/>
+    </row>
+    <row r="43" spans="2:16" s="94" customFormat="1" ht="24" customHeight="1">
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+    </row>
+    <row r="44" spans="2:16" s="94" customFormat="1">
+      <c r="B44" s="92"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+    </row>
+    <row r="45" spans="2:16" s="29" customFormat="1" ht="60" customHeight="1">
+      <c r="B45" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="57" t="s">
+      <c r="G45" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="59" t="s">
+      <c r="J45" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="58" t="s">
+      <c r="K45" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="L45" s="59" t="s">
+      <c r="L45" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="60" t="s">
+      <c r="M45" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N45" s="54"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="56"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="55"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="69"/>
-      <c r="C46" s="108" t="s">
+      <c r="B46" s="68"/>
+      <c r="C46" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="105" t="s">
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="106"/>
-      <c r="L46" s="106"/>
-      <c r="M46" s="107"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="24"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="23"/>
     </row>
     <row r="47" spans="2:16">
       <c r="B47" s="6"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="21"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="23"/>
+      <c r="K47" s="22"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="53"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="52"/>
     </row>
     <row r="48" spans="2:16">
       <c r="B48" s="6"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="21"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="23"/>
+      <c r="K48" s="22"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="53"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="52"/>
     </row>
     <row r="49" spans="2:16">
       <c r="B49" s="6"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="23"/>
+      <c r="K49" s="22"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="53"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="52"/>
     </row>
     <row r="50" spans="2:16">
       <c r="B50" s="6"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="21"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="23"/>
+      <c r="K50" s="22"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="53"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="52"/>
     </row>
     <row r="51" spans="2:16">
       <c r="B51" s="6"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="21"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="23"/>
+      <c r="K51" s="22"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="53"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="52"/>
     </row>
     <row r="52" spans="2:16">
       <c r="B52" s="6"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="21"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="23"/>
+      <c r="K52" s="22"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="53"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="52"/>
     </row>
     <row r="53" spans="2:16">
       <c r="B53" s="6"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="22"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="23"/>
+      <c r="K53" s="22"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="53"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="52"/>
     </row>
     <row r="54" spans="2:16">
       <c r="B54" s="6"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="22"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="21"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="23"/>
+      <c r="K54" s="22"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="53"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="52"/>
     </row>
     <row r="55" spans="2:16">
       <c r="B55" s="6"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="21"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="23"/>
+      <c r="K55" s="22"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="53"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="52"/>
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="6"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="22"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="21"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
-      <c r="K56" s="23"/>
+      <c r="K56" s="22"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="53"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="52"/>
     </row>
     <row r="57" spans="2:16">
       <c r="B57" s="6"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
-      <c r="K57" s="23"/>
+      <c r="K57" s="22"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="53"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="52"/>
     </row>
     <row r="58" spans="2:16">
       <c r="B58" s="6"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="21"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="23"/>
+      <c r="K58" s="22"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="53"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="52"/>
     </row>
     <row r="59" spans="2:16">
       <c r="B59" s="6"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="22"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="21"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
-      <c r="K59" s="23"/>
+      <c r="K59" s="22"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="53"/>
-    </row>
-    <row r="60" spans="2:16" s="30" customFormat="1" ht="69" customHeight="1">
-      <c r="B60" s="99" t="s">
+      <c r="M59" s="17"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="52"/>
+    </row>
+    <row r="60" spans="2:16" s="29" customFormat="1" ht="69" customHeight="1">
+      <c r="B60" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="99" t="s">
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="34" t="s">
+      <c r="H60" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I60" s="100"/>
-      <c r="J60" s="100" t="s">
+      <c r="I60" s="99"/>
+      <c r="J60" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="K60" s="99"/>
-      <c r="L60" s="100" t="s">
+      <c r="K60" s="98"/>
+      <c r="L60" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="M60" s="100" t="s">
+      <c r="M60" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="N60" s="54"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="56"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="55"/>
     </row>
     <row r="62" spans="2:16" ht="51.75" customHeight="1">
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="47"/>
+      <c r="C62" s="46"/>
     </row>
     <row r="63" spans="2:16">
       <c r="B63" s="3"/>
-      <c r="C63" s="45"/>
+      <c r="C63" s="44"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="H63" s="4"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="2:16" s="31" customFormat="1" ht="69" customHeight="1">
-      <c r="B64" s="29" t="s">
+    <row r="64" spans="2:16" s="30" customFormat="1" ht="69" customHeight="1">
+      <c r="B64" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="64"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-    </row>
-    <row r="65" spans="2:10" s="25" customFormat="1">
-      <c r="B65" s="26" t="s">
+      <c r="G64" s="63"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+    </row>
+    <row r="65" spans="2:10" s="24" customFormat="1">
+      <c r="B65" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-    </row>
-    <row r="67" spans="2:10" ht="18">
-      <c r="B67" s="26" t="s">
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+    </row>
+    <row r="67" spans="2:10" ht="18.75">
+      <c r="B67" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="25" t="s">
         <v>82</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="76" t="s">
+      <c r="B74" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="101">
+      <c r="C74" s="100">
         <v>1</v>
       </c>
-      <c r="D74" s="101">
+      <c r="D74" s="100">
         <v>1</v>
       </c>
-      <c r="E74" s="101">
+      <c r="E74" s="100">
         <v>1</v>
       </c>
-      <c r="F74" s="101">
+      <c r="F74" s="100">
         <v>1</v>
       </c>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-    </row>
-    <row r="75" spans="2:10" s="49" customFormat="1">
-      <c r="B75" s="66" t="s">
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+    </row>
+    <row r="75" spans="2:10" s="48" customFormat="1">
+      <c r="B75" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="72" t="s">
+      <c r="B76" s="71" t="s">
         <v>61</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="H76" s="14"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="44"/>
+      <c r="B77" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5019,206 +5027,206 @@
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="55.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="55.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" customWidth="1"/>
-    <col min="12" max="12" width="31.44140625" customWidth="1"/>
-    <col min="13" max="13" width="24.88671875" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" ht="15.75">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="E1" s="42"/>
-      <c r="I1" s="102" t="s">
+      <c r="B1" s="8"/>
+      <c r="E1" s="41"/>
+      <c r="I1" s="101" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.6">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1"/>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="48"/>
-      <c r="G3" s="28" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="47"/>
+      <c r="G3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="40"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="G4" s="28" t="s">
+      <c r="E4" s="47"/>
+      <c r="G4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="87" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.6">
-      <c r="B5" s="27" t="s">
+      <c r="J4" s="87"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75">
+      <c r="B5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="48"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="40"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="47"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="16"/>
       <c r="G6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="65"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="F9" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="89"/>
-      <c r="P9" s="24"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="88"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="G10" s="36" t="s">
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="G10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="65"/>
-      <c r="P10" s="24"/>
+      <c r="I10" s="64"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="B11" s="75"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="F11" s="77" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="F11" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="92" t="s">
+      <c r="G11" s="91" t="s">
         <v>64</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="49"/>
-      <c r="P11" s="24"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="48"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="P12" s="24"/>
-    </row>
-    <row r="13" spans="1:16" s="25" customFormat="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="103" t="s">
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:16" s="24" customFormat="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" spans="1:16" s="25" customFormat="1" ht="162" customHeight="1">
-      <c r="B14" s="33" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:16" s="24" customFormat="1" ht="162" customHeight="1">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="33" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5226,165 +5234,165 @@
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="61"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="60"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="K22" s="19"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="41"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="2:13" s="25" customFormat="1" ht="28.8">
-      <c r="B24" s="33" t="s">
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="40"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="2:13" s="24" customFormat="1" ht="45">
+      <c r="B24" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="34" t="s">
+      <c r="L24" s="33" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5392,798 +5400,798 @@
       <c r="B25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="19"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="19"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="18"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="19"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="18"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="19"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="19"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="18"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="61"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="60"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="10"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="61"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="60"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="41"/>
-      <c r="K33" s="19"/>
-    </row>
-    <row r="34" spans="2:16" s="25" customFormat="1" ht="28.8">
-      <c r="B34" s="33" t="s">
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="40"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="2:16" s="24" customFormat="1" ht="45">
+      <c r="B34" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="51" t="s">
+      <c r="H34" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K34" s="34" t="s">
+      <c r="K34" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L34" s="34" t="s">
+      <c r="L34" s="33" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:16">
-      <c r="C35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="18"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="104"/>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="19"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="18"/>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="19"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="19"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="18"/>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="19"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="18"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="19"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="18"/>
     </row>
     <row r="41" spans="2:16" ht="21" customHeight="1">
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="19"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="18"/>
     </row>
     <row r="42" spans="2:16" ht="24" customHeight="1">
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="61"/>
-    </row>
-    <row r="43" spans="2:16" s="95" customFormat="1" ht="24" customHeight="1">
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-    </row>
-    <row r="44" spans="2:16" s="95" customFormat="1">
-      <c r="B44" s="93"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-    </row>
-    <row r="45" spans="2:16" s="30" customFormat="1" ht="60" customHeight="1">
-      <c r="B45" s="32" t="s">
+      <c r="C42" s="106"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="60"/>
+    </row>
+    <row r="43" spans="2:16" s="94" customFormat="1" ht="24" customHeight="1">
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+    </row>
+    <row r="44" spans="2:16" s="94" customFormat="1">
+      <c r="B44" s="92"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+    </row>
+    <row r="45" spans="2:16" s="29" customFormat="1" ht="60" customHeight="1">
+      <c r="B45" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="57" t="s">
+      <c r="G45" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="59" t="s">
+      <c r="J45" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="58" t="s">
+      <c r="K45" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="L45" s="59" t="s">
+      <c r="L45" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="60" t="s">
+      <c r="M45" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N45" s="54"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="56"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="55"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="69"/>
-      <c r="C46" s="108" t="s">
+      <c r="B46" s="68"/>
+      <c r="C46" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="105" t="s">
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="106"/>
-      <c r="L46" s="106"/>
-      <c r="M46" s="107"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="24"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="23"/>
     </row>
     <row r="47" spans="2:16">
       <c r="B47" s="6"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="21"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="23"/>
+      <c r="K47" s="22"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="53"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="52"/>
     </row>
     <row r="48" spans="2:16">
       <c r="B48" s="6"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="21"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="23"/>
+      <c r="K48" s="22"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="53"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="52"/>
     </row>
     <row r="49" spans="2:16">
       <c r="B49" s="6"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="23"/>
+      <c r="K49" s="22"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="53"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="52"/>
     </row>
     <row r="50" spans="2:16">
       <c r="B50" s="6"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="21"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="23"/>
+      <c r="K50" s="22"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="53"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="52"/>
     </row>
     <row r="51" spans="2:16">
       <c r="B51" s="6"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="21"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="23"/>
+      <c r="K51" s="22"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="53"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="52"/>
     </row>
     <row r="52" spans="2:16">
       <c r="B52" s="6"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="21"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="23"/>
+      <c r="K52" s="22"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="53"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="52"/>
     </row>
     <row r="53" spans="2:16">
       <c r="B53" s="6"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="22"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="23"/>
+      <c r="K53" s="22"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="53"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="52"/>
     </row>
     <row r="54" spans="2:16">
       <c r="B54" s="6"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="22"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="21"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="23"/>
+      <c r="K54" s="22"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="53"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="52"/>
     </row>
     <row r="55" spans="2:16">
       <c r="B55" s="6"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="21"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="23"/>
+      <c r="K55" s="22"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="53"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="52"/>
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="6"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="22"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="21"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
-      <c r="K56" s="23"/>
+      <c r="K56" s="22"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="53"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="52"/>
     </row>
     <row r="57" spans="2:16">
       <c r="B57" s="6"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
-      <c r="K57" s="23"/>
+      <c r="K57" s="22"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="53"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="52"/>
     </row>
     <row r="58" spans="2:16">
       <c r="B58" s="6"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="21"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="23"/>
+      <c r="K58" s="22"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="53"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="52"/>
     </row>
     <row r="59" spans="2:16">
       <c r="B59" s="6"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="22"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="21"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
-      <c r="K59" s="23"/>
+      <c r="K59" s="22"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="53"/>
-    </row>
-    <row r="60" spans="2:16" s="30" customFormat="1" ht="69" customHeight="1">
-      <c r="B60" s="99" t="s">
+      <c r="M59" s="17"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="52"/>
+    </row>
+    <row r="60" spans="2:16" s="29" customFormat="1" ht="69" customHeight="1">
+      <c r="B60" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="99" t="s">
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="34" t="s">
+      <c r="H60" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I60" s="100"/>
-      <c r="J60" s="100" t="s">
+      <c r="I60" s="99"/>
+      <c r="J60" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="K60" s="99"/>
-      <c r="L60" s="100" t="s">
+      <c r="K60" s="98"/>
+      <c r="L60" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="M60" s="100" t="s">
+      <c r="M60" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="N60" s="54"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="56"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="55"/>
     </row>
     <row r="62" spans="2:16" ht="51.75" customHeight="1">
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="47"/>
+      <c r="C62" s="46"/>
     </row>
     <row r="63" spans="2:16">
       <c r="B63" s="3"/>
-      <c r="C63" s="45"/>
+      <c r="C63" s="44"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="H63" s="4"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="2:16" s="31" customFormat="1" ht="69" customHeight="1">
-      <c r="B64" s="29" t="s">
+    <row r="64" spans="2:16" s="30" customFormat="1" ht="69" customHeight="1">
+      <c r="B64" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="64"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-    </row>
-    <row r="65" spans="2:10" s="25" customFormat="1">
-      <c r="B65" s="26" t="s">
+      <c r="G64" s="63"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+    </row>
+    <row r="65" spans="2:10" s="24" customFormat="1">
+      <c r="B65" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-    </row>
-    <row r="67" spans="2:10" ht="18">
-      <c r="B67" s="26" t="s">
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+    </row>
+    <row r="67" spans="2:10" ht="18.75">
+      <c r="B67" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="25" t="s">
         <v>82</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="76" t="s">
+      <c r="B74" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="101">
+      <c r="C74" s="100">
         <v>1</v>
       </c>
-      <c r="D74" s="101">
+      <c r="D74" s="100">
         <v>1</v>
       </c>
-      <c r="E74" s="101">
+      <c r="E74" s="100">
         <v>1</v>
       </c>
-      <c r="F74" s="101">
+      <c r="F74" s="100">
         <v>1</v>
       </c>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-    </row>
-    <row r="75" spans="2:10" s="49" customFormat="1">
-      <c r="B75" s="66" t="s">
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+    </row>
+    <row r="75" spans="2:10" s="48" customFormat="1">
+      <c r="B75" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="72" t="s">
+      <c r="B76" s="71" t="s">
         <v>61</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="H76" s="14"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="44"/>
+      <c r="B77" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6203,206 +6211,206 @@
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="55.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="55.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" customWidth="1"/>
-    <col min="12" max="12" width="31.44140625" customWidth="1"/>
-    <col min="13" max="13" width="24.88671875" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" ht="15.75">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="E1" s="42"/>
-      <c r="I1" s="102" t="s">
+      <c r="B1" s="8"/>
+      <c r="E1" s="41"/>
+      <c r="I1" s="101" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.6">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1"/>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="48"/>
-      <c r="G3" s="28" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="47"/>
+      <c r="G3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="40"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="G4" s="28" t="s">
+      <c r="E4" s="47"/>
+      <c r="G4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="87" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.6">
-      <c r="B5" s="27" t="s">
+      <c r="J4" s="87"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75">
+      <c r="B5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="48"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="40"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="47"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="16"/>
       <c r="G6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="65"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="F9" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="89"/>
-      <c r="P9" s="24"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="88"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="G10" s="36" t="s">
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="G10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="65"/>
-      <c r="P10" s="24"/>
+      <c r="I10" s="64"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="B11" s="75"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="F11" s="77" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="F11" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="92" t="s">
+      <c r="G11" s="91" t="s">
         <v>64</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="49"/>
-      <c r="P11" s="24"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="48"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="P12" s="24"/>
-    </row>
-    <row r="13" spans="1:16" s="25" customFormat="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="103" t="s">
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:16" s="24" customFormat="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" spans="1:16" s="25" customFormat="1" ht="162" customHeight="1">
-      <c r="B14" s="33" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:16" s="24" customFormat="1" ht="162" customHeight="1">
+      <c r="B14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="33" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6410,165 +6418,165 @@
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="61"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="60"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="K22" s="19"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="41"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="2:13" s="25" customFormat="1" ht="28.8">
-      <c r="B24" s="33" t="s">
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="40"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="2:13" s="24" customFormat="1" ht="45">
+      <c r="B24" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="H24" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="34" t="s">
+      <c r="L24" s="33" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6576,798 +6584,798 @@
       <c r="B25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="19"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="19"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="18"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="19"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="18"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="19"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="19"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="18"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="61"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="60"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="10"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="61"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="60"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="41"/>
-      <c r="K33" s="19"/>
-    </row>
-    <row r="34" spans="2:16" s="25" customFormat="1" ht="28.8">
-      <c r="B34" s="33" t="s">
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="40"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="2:16" s="24" customFormat="1" ht="45">
+      <c r="B34" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="51" t="s">
+      <c r="H34" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K34" s="34" t="s">
+      <c r="K34" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L34" s="34" t="s">
+      <c r="L34" s="33" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:16">
-      <c r="C35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="18"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="104"/>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="19"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="18"/>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="19"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="19"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="18"/>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="19"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="18"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="19"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="18"/>
     </row>
     <row r="41" spans="2:16" ht="21" customHeight="1">
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="19"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="18"/>
     </row>
     <row r="42" spans="2:16" ht="24" customHeight="1">
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="61"/>
-    </row>
-    <row r="43" spans="2:16" s="95" customFormat="1" ht="24" customHeight="1">
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-    </row>
-    <row r="44" spans="2:16" s="95" customFormat="1">
-      <c r="B44" s="93"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-    </row>
-    <row r="45" spans="2:16" s="30" customFormat="1" ht="60" customHeight="1">
-      <c r="B45" s="32" t="s">
+      <c r="C42" s="106"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="60"/>
+    </row>
+    <row r="43" spans="2:16" s="94" customFormat="1" ht="24" customHeight="1">
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+    </row>
+    <row r="44" spans="2:16" s="94" customFormat="1">
+      <c r="B44" s="92"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+    </row>
+    <row r="45" spans="2:16" s="29" customFormat="1" ht="60" customHeight="1">
+      <c r="B45" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="57" t="s">
+      <c r="G45" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="59" t="s">
+      <c r="J45" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="58" t="s">
+      <c r="K45" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="L45" s="59" t="s">
+      <c r="L45" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="60" t="s">
+      <c r="M45" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="N45" s="54"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="56"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="55"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="69"/>
-      <c r="C46" s="108" t="s">
+      <c r="B46" s="68"/>
+      <c r="C46" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="105" t="s">
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="106"/>
-      <c r="L46" s="106"/>
-      <c r="M46" s="107"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="24"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="23"/>
     </row>
     <row r="47" spans="2:16">
       <c r="B47" s="6"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="21"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="23"/>
+      <c r="K47" s="22"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="53"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="52"/>
     </row>
     <row r="48" spans="2:16">
       <c r="B48" s="6"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="21"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="23"/>
+      <c r="K48" s="22"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="53"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="52"/>
     </row>
     <row r="49" spans="2:16">
       <c r="B49" s="6"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="23"/>
+      <c r="K49" s="22"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="53"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="52"/>
     </row>
     <row r="50" spans="2:16">
       <c r="B50" s="6"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="21"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="23"/>
+      <c r="K50" s="22"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="53"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="52"/>
     </row>
     <row r="51" spans="2:16">
       <c r="B51" s="6"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="21"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="23"/>
+      <c r="K51" s="22"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="53"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="52"/>
     </row>
     <row r="52" spans="2:16">
       <c r="B52" s="6"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="21"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="23"/>
+      <c r="K52" s="22"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="53"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="52"/>
     </row>
     <row r="53" spans="2:16">
       <c r="B53" s="6"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="22"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="23"/>
+      <c r="K53" s="22"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="53"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="52"/>
     </row>
     <row r="54" spans="2:16">
       <c r="B54" s="6"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="22"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="21"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="23"/>
+      <c r="K54" s="22"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="53"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="52"/>
     </row>
     <row r="55" spans="2:16">
       <c r="B55" s="6"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="21"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="23"/>
+      <c r="K55" s="22"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="53"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="52"/>
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="6"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="22"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="21"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
-      <c r="K56" s="23"/>
+      <c r="K56" s="22"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="53"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="52"/>
     </row>
     <row r="57" spans="2:16">
       <c r="B57" s="6"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="22"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
-      <c r="K57" s="23"/>
+      <c r="K57" s="22"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="53"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="52"/>
     </row>
     <row r="58" spans="2:16">
       <c r="B58" s="6"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="21"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="23"/>
+      <c r="K58" s="22"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="53"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="52"/>
     </row>
     <row r="59" spans="2:16">
       <c r="B59" s="6"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="22"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="21"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
-      <c r="K59" s="23"/>
+      <c r="K59" s="22"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="53"/>
-    </row>
-    <row r="60" spans="2:16" s="30" customFormat="1" ht="69" customHeight="1">
-      <c r="B60" s="99" t="s">
+      <c r="M59" s="17"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="52"/>
+    </row>
+    <row r="60" spans="2:16" s="29" customFormat="1" ht="69" customHeight="1">
+      <c r="B60" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="99" t="s">
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="G60" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="34" t="s">
+      <c r="H60" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I60" s="100"/>
-      <c r="J60" s="100" t="s">
+      <c r="I60" s="99"/>
+      <c r="J60" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="K60" s="99"/>
-      <c r="L60" s="100" t="s">
+      <c r="K60" s="98"/>
+      <c r="L60" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="M60" s="100" t="s">
+      <c r="M60" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="N60" s="54"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="56"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="55"/>
     </row>
     <row r="62" spans="2:16" ht="51.75" customHeight="1">
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="47"/>
+      <c r="C62" s="46"/>
     </row>
     <row r="63" spans="2:16">
       <c r="B63" s="3"/>
-      <c r="C63" s="45"/>
+      <c r="C63" s="44"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="H63" s="4"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="2:16" s="31" customFormat="1" ht="69" customHeight="1">
-      <c r="B64" s="29" t="s">
+    <row r="64" spans="2:16" s="30" customFormat="1" ht="69" customHeight="1">
+      <c r="B64" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G64" s="64"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-    </row>
-    <row r="65" spans="2:10" s="25" customFormat="1">
-      <c r="B65" s="26" t="s">
+      <c r="G64" s="63"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+    </row>
+    <row r="65" spans="2:10" s="24" customFormat="1">
+      <c r="B65" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
       <c r="I65"/>
       <c r="J65"/>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-    </row>
-    <row r="67" spans="2:10" ht="18">
-      <c r="B67" s="26" t="s">
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+    </row>
+    <row r="67" spans="2:10" ht="18.75">
+      <c r="B67" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="25" t="s">
         <v>82</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="25" t="s">
         <v>32</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="76" t="s">
+      <c r="B74" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="101">
+      <c r="C74" s="100">
         <v>1</v>
       </c>
-      <c r="D74" s="101">
+      <c r="D74" s="100">
         <v>1</v>
       </c>
-      <c r="E74" s="101">
+      <c r="E74" s="100">
         <v>1</v>
       </c>
-      <c r="F74" s="101">
+      <c r="F74" s="100">
         <v>1</v>
       </c>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-    </row>
-    <row r="75" spans="2:10" s="49" customFormat="1">
-      <c r="B75" s="66" t="s">
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+    </row>
+    <row r="75" spans="2:10" s="48" customFormat="1">
+      <c r="B75" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="72" t="s">
+      <c r="B76" s="71" t="s">
         <v>61</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="H76" s="14"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="44"/>
+      <c r="B77" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7383,9 +7391,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7438,18 +7449,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32C936E8-4A99-4EBD-BA5A-FB2A1938ED8E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4860FA-6862-47CF-82FB-EE89C1981EA8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7470,9 +7478,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4860FA-6862-47CF-82FB-EE89C1981EA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32C936E8-4A99-4EBD-BA5A-FB2A1938ED8E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TimeSheet/Content/Dash_Board.xlsx
+++ b/TimeSheet/Content/Dash_Board.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="-30" windowWidth="2760" windowHeight="4710" tabRatio="841" firstSheet="1" activeTab="1"/>
@@ -347,9 +347,6 @@
     <t xml:space="preserve">Compliance driven projects / programs </t>
   </si>
   <si>
-    <t>comsumer monitoring (test supported)</t>
-  </si>
-  <si>
     <t>Baby-Feminine-Fam care</t>
   </si>
   <si>
@@ -422,9 +419,6 @@
     <t xml:space="preserve">Claims/Copy Support </t>
   </si>
   <si>
-    <t xml:space="preserve">comsumer monitoring </t>
-  </si>
-  <si>
     <t>TARGET / COMNMENTS</t>
   </si>
   <si>
@@ -441,6 +435,12 @@
   </si>
   <si>
     <t>Updated: 25-Sept-2013</t>
+  </si>
+  <si>
+    <t>consumer monitoring (test supported)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consumer monitoring </t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1440,7 @@
     <row r="1" spans="1:1">
       <c r="A1">
         <f ca="1">NOW()</f>
-        <v>41698.575901504628</v>
+        <v>41698.665745833336</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1451,7 +1451,7 @@
     <row r="5" spans="1:1">
       <c r="A5">
         <f ca="1">NOW()</f>
-        <v>41698.575901504628</v>
+        <v>41698.665745833336</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1472,7 +1472,7 @@
   </sheetPr>
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="C35" sqref="C35:C42"/>
     </sheetView>
   </sheetViews>
@@ -1501,7 +1501,7 @@
       <c r="B1" s="8"/>
       <c r="E1" s="41"/>
       <c r="I1" s="101" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="C4" s="78"/>
       <c r="D4" s="85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="47"/>
       <c r="G4" s="27" t="s">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="87"/>
     </row>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="82"/>
       <c r="D7" s="69"/>
@@ -1584,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="64"/>
     </row>
@@ -1595,7 +1595,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="89"/>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="64"/>
       <c r="P10" s="2"/>
@@ -1622,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="G11" s="91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="90"/>
@@ -1664,7 +1664,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>51</v>
@@ -1673,7 +1673,7 @@
         <v>48</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1710,7 +1710,7 @@
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="102"/>
       <c r="D17" s="7"/>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="102"/>
       <c r="D18" s="7"/>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="102"/>
       <c r="D19" s="7"/>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="106"/>
       <c r="D21" s="7"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="108"/>
       <c r="D23" s="108"/>
@@ -1815,31 +1815,31 @@
         <v>3</v>
       </c>
       <c r="D24" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="F24" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="G24" s="50" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>51</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L24" s="33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:13">
@@ -1876,7 +1876,7 @@
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="102"/>
       <c r="D27" s="102"/>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="102"/>
       <c r="D28" s="102"/>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="102"/>
       <c r="D29" s="102"/>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="31" spans="2:13" ht="24.75" customHeight="1">
       <c r="B31" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="106"/>
       <c r="D31" s="102"/>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="108"/>
       <c r="D33" s="108"/>
@@ -1985,31 +1985,31 @@
         <v>3</v>
       </c>
       <c r="D34" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="F34" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="G34" s="50" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>51</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="2:16">
@@ -2058,7 +2058,7 @@
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="102"/>
       <c r="D38" s="7"/>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="102"/>
       <c r="D39" s="7"/>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="106"/>
       <c r="D40" s="7"/>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="42" spans="2:16" ht="24" customHeight="1">
       <c r="B42" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="106"/>
       <c r="D42" s="7"/>
@@ -2208,7 +2208,7 @@
       <c r="E46" s="113"/>
       <c r="F46" s="114"/>
       <c r="G46" s="109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H46" s="110"/>
       <c r="I46" s="110"/>
@@ -2430,30 +2430,30 @@
     </row>
     <row r="60" spans="2:16" s="29" customFormat="1" ht="69" customHeight="1">
       <c r="B60" s="98" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="98"/>
       <c r="D60" s="98"/>
       <c r="E60" s="99"/>
       <c r="F60" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G60" s="33" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I60" s="99"/>
       <c r="J60" s="99" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K60" s="98"/>
       <c r="L60" s="99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M60" s="99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N60" s="53"/>
       <c r="O60" s="54"/>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C74" s="100">
         <v>1</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="75" spans="2:10" s="48" customFormat="1">
       <c r="B75" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" s="70"/>
       <c r="D75" s="70"/>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="76" spans="2:10" ht="22.5" customHeight="1">
       <c r="B76" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -2687,7 +2687,7 @@
       <c r="B1" s="8"/>
       <c r="E1" s="41"/>
       <c r="I1" s="101" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C4" s="78"/>
       <c r="D4" s="85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="47"/>
       <c r="G4" s="27" t="s">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="87"/>
     </row>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="82"/>
       <c r="D7" s="69"/>
@@ -2770,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="64"/>
     </row>
@@ -2781,7 +2781,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="89"/>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="64"/>
       <c r="P10" s="23"/>
@@ -2808,7 +2808,7 @@
         <v>37</v>
       </c>
       <c r="G11" s="91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="90"/>
@@ -2850,7 +2850,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>51</v>
@@ -2859,7 +2859,7 @@
         <v>48</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2896,7 +2896,7 @@
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="102"/>
       <c r="D17" s="102"/>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="102"/>
       <c r="D18" s="102"/>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="102"/>
       <c r="D19" s="102"/>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="106"/>
       <c r="D21" s="102"/>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="108"/>
       <c r="D23" s="108"/>
@@ -3001,31 +3001,31 @@
         <v>3</v>
       </c>
       <c r="D24" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="F24" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="G24" s="50" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>51</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L24" s="33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:13">
@@ -3062,7 +3062,7 @@
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="102"/>
       <c r="D27" s="102"/>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="102"/>
       <c r="D28" s="102"/>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="102"/>
       <c r="D29" s="102"/>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="106"/>
       <c r="D31" s="102"/>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="108"/>
       <c r="D33" s="108"/>
@@ -3171,31 +3171,31 @@
         <v>3</v>
       </c>
       <c r="D34" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="F34" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="G34" s="50" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>51</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="2:16">
@@ -3244,7 +3244,7 @@
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="102"/>
       <c r="D38" s="102"/>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="102"/>
       <c r="D39" s="102"/>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="106"/>
       <c r="D40" s="102"/>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="42" spans="2:16" ht="24" customHeight="1">
       <c r="B42" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="106"/>
       <c r="D42" s="102"/>
@@ -3394,7 +3394,7 @@
       <c r="E46" s="113"/>
       <c r="F46" s="114"/>
       <c r="G46" s="109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H46" s="110"/>
       <c r="I46" s="110"/>
@@ -3616,30 +3616,30 @@
     </row>
     <row r="60" spans="2:16" s="29" customFormat="1" ht="69" customHeight="1">
       <c r="B60" s="98" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="98"/>
       <c r="D60" s="98"/>
       <c r="E60" s="99"/>
       <c r="F60" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G60" s="33" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I60" s="99"/>
       <c r="J60" s="99" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K60" s="98"/>
       <c r="L60" s="99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M60" s="99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N60" s="53"/>
       <c r="O60" s="54"/>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C74" s="100">
         <v>1</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="75" spans="2:10" s="48" customFormat="1">
       <c r="B75" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" s="70"/>
       <c r="D75" s="70"/>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -3871,7 +3871,7 @@
       <c r="B1" s="8"/>
       <c r="E1" s="41"/>
       <c r="I1" s="101" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="C4" s="78"/>
       <c r="D4" s="85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="47"/>
       <c r="G4" s="27" t="s">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="87"/>
     </row>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="82"/>
       <c r="D7" s="69"/>
@@ -3954,7 +3954,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="64"/>
     </row>
@@ -3965,7 +3965,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="89"/>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="64"/>
       <c r="P10" s="23"/>
@@ -3992,7 +3992,7 @@
         <v>37</v>
       </c>
       <c r="G11" s="91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="90"/>
@@ -4034,7 +4034,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>51</v>
@@ -4043,7 +4043,7 @@
         <v>48</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -4080,7 +4080,7 @@
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
@@ -4096,7 +4096,7 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="7"/>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="108"/>
       <c r="D23" s="108"/>
@@ -4185,31 +4185,31 @@
         <v>3</v>
       </c>
       <c r="D24" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="F24" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="G24" s="50" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>51</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L24" s="33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:13">
@@ -4246,7 +4246,7 @@
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="7"/>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="108"/>
       <c r="D33" s="108"/>
@@ -4355,31 +4355,31 @@
         <v>3</v>
       </c>
       <c r="D34" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="F34" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="G34" s="50" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>51</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="2:16">
@@ -4428,7 +4428,7 @@
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="7"/>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="42" spans="2:16" ht="24" customHeight="1">
       <c r="B42" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="7"/>
@@ -4578,7 +4578,7 @@
       <c r="E46" s="113"/>
       <c r="F46" s="114"/>
       <c r="G46" s="109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H46" s="110"/>
       <c r="I46" s="110"/>
@@ -4800,30 +4800,30 @@
     </row>
     <row r="60" spans="2:16" s="29" customFormat="1" ht="69" customHeight="1">
       <c r="B60" s="98" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="98"/>
       <c r="D60" s="98"/>
       <c r="E60" s="99"/>
       <c r="F60" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G60" s="33" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I60" s="99"/>
       <c r="J60" s="99" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K60" s="98"/>
       <c r="L60" s="99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M60" s="99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N60" s="53"/>
       <c r="O60" s="54"/>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C74" s="100">
         <v>1</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="75" spans="2:10" s="48" customFormat="1">
       <c r="B75" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" s="70"/>
       <c r="D75" s="70"/>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -5055,7 +5055,7 @@
       <c r="B1" s="8"/>
       <c r="E1" s="41"/>
       <c r="I1" s="101" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="C4" s="78"/>
       <c r="D4" s="85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="47"/>
       <c r="G4" s="27" t="s">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="87"/>
     </row>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="82"/>
       <c r="D7" s="69"/>
@@ -5138,7 +5138,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="64"/>
     </row>
@@ -5149,7 +5149,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="89"/>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="64"/>
       <c r="P10" s="23"/>
@@ -5176,7 +5176,7 @@
         <v>37</v>
       </c>
       <c r="G11" s="91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="90"/>
@@ -5218,7 +5218,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>51</v>
@@ -5227,7 +5227,7 @@
         <v>48</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -5264,7 +5264,7 @@
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="102"/>
       <c r="D17" s="102"/>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="102"/>
       <c r="D18" s="102"/>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="102"/>
       <c r="D19" s="102"/>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="106"/>
       <c r="D21" s="102"/>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="108"/>
       <c r="D23" s="108"/>
@@ -5369,31 +5369,31 @@
         <v>3</v>
       </c>
       <c r="D24" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="F24" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="G24" s="50" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>51</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L24" s="33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:13">
@@ -5430,7 +5430,7 @@
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="102"/>
       <c r="D27" s="102"/>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="102"/>
       <c r="D28" s="102"/>
@@ -5462,7 +5462,7 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="102"/>
       <c r="D29" s="102"/>
@@ -5494,7 +5494,7 @@
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="106"/>
       <c r="D31" s="102"/>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="108"/>
       <c r="D33" s="108"/>
@@ -5539,31 +5539,31 @@
         <v>3</v>
       </c>
       <c r="D34" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="F34" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="G34" s="50" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>51</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="2:16">
@@ -5612,7 +5612,7 @@
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="102"/>
       <c r="D38" s="102"/>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="102"/>
       <c r="D39" s="102"/>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="106"/>
       <c r="D40" s="102"/>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="42" spans="2:16" ht="24" customHeight="1">
       <c r="B42" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="106"/>
       <c r="D42" s="102"/>
@@ -5762,7 +5762,7 @@
       <c r="E46" s="113"/>
       <c r="F46" s="114"/>
       <c r="G46" s="109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H46" s="110"/>
       <c r="I46" s="110"/>
@@ -5984,30 +5984,30 @@
     </row>
     <row r="60" spans="2:16" s="29" customFormat="1" ht="69" customHeight="1">
       <c r="B60" s="98" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="98"/>
       <c r="D60" s="98"/>
       <c r="E60" s="99"/>
       <c r="F60" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G60" s="33" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I60" s="99"/>
       <c r="J60" s="99" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K60" s="98"/>
       <c r="L60" s="99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M60" s="99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N60" s="53"/>
       <c r="O60" s="54"/>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C74" s="100">
         <v>1</v>
@@ -6171,7 +6171,7 @@
     </row>
     <row r="75" spans="2:10" s="48" customFormat="1">
       <c r="B75" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" s="70"/>
       <c r="D75" s="70"/>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -6239,7 +6239,7 @@
       <c r="B1" s="8"/>
       <c r="E1" s="41"/>
       <c r="I1" s="101" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="C4" s="78"/>
       <c r="D4" s="85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="47"/>
       <c r="G4" s="27" t="s">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="87"/>
     </row>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="82"/>
       <c r="D7" s="69"/>
@@ -6322,7 +6322,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="64"/>
     </row>
@@ -6333,7 +6333,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="89"/>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="64"/>
       <c r="P10" s="23"/>
@@ -6360,7 +6360,7 @@
         <v>37</v>
       </c>
       <c r="G11" s="91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="90"/>
@@ -6402,7 +6402,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>51</v>
@@ -6411,7 +6411,7 @@
         <v>48</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -6448,7 +6448,7 @@
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="102"/>
       <c r="D17" s="102"/>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="102"/>
       <c r="D18" s="102"/>
@@ -6480,7 +6480,7 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="102"/>
       <c r="D19" s="102"/>
@@ -6512,7 +6512,7 @@
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="106"/>
       <c r="D21" s="102"/>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="108"/>
       <c r="D23" s="108"/>
@@ -6553,31 +6553,31 @@
         <v>3</v>
       </c>
       <c r="D24" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="F24" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="G24" s="50" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>51</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L24" s="33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:13">
@@ -6614,7 +6614,7 @@
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="102"/>
       <c r="D27" s="102"/>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="102"/>
       <c r="D28" s="102"/>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="102"/>
       <c r="D29" s="102"/>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="106"/>
       <c r="D31" s="102"/>
@@ -6708,7 +6708,7 @@
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="108"/>
       <c r="D33" s="108"/>
@@ -6723,31 +6723,31 @@
         <v>3</v>
       </c>
       <c r="D34" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="F34" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="G34" s="50" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>51</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="2:16">
@@ -6796,7 +6796,7 @@
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="102"/>
       <c r="D38" s="102"/>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="102"/>
       <c r="D39" s="102"/>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="106"/>
       <c r="D40" s="102"/>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="42" spans="2:16" ht="24" customHeight="1">
       <c r="B42" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="106"/>
       <c r="D42" s="102"/>
@@ -6946,7 +6946,7 @@
       <c r="E46" s="113"/>
       <c r="F46" s="114"/>
       <c r="G46" s="109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H46" s="110"/>
       <c r="I46" s="110"/>
@@ -7168,30 +7168,30 @@
     </row>
     <row r="60" spans="2:16" s="29" customFormat="1" ht="69" customHeight="1">
       <c r="B60" s="98" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="98"/>
       <c r="D60" s="98"/>
       <c r="E60" s="99"/>
       <c r="F60" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G60" s="33" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I60" s="99"/>
       <c r="J60" s="99" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K60" s="98"/>
       <c r="L60" s="99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M60" s="99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N60" s="53"/>
       <c r="O60" s="54"/>
@@ -7270,7 +7270,7 @@
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C74" s="100">
         <v>1</v>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="75" spans="2:10" s="48" customFormat="1">
       <c r="B75" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" s="70"/>
       <c r="D75" s="70"/>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -7391,12 +7391,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7449,15 +7446,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4860FA-6862-47CF-82FB-EE89C1981EA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32C936E8-4A99-4EBD-BA5A-FB2A1938ED8E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7478,9 +7478,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32C936E8-4A99-4EBD-BA5A-FB2A1938ED8E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B4860FA-6862-47CF-82FB-EE89C1981EA8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>